--- a/data_protocol/teamstats_min.xlsx
+++ b/data_protocol/teamstats_min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>home_xGoals</t>
+          <t>homeGoals</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -513,7 +513,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>home_shots</t>
+          <t>awayGoals</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -523,7 +523,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>home_shotsOnTarget</t>
+          <t>homeGoalsHalfTime</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -533,7 +533,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>home_deep</t>
+          <t>awayGoalsHalfTime</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -543,17 +543,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>home_ppda</t>
+          <t>home_xGoals</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.8974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>home_fouls</t>
+          <t>home_shots</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -563,7 +563,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>home_corners</t>
+          <t>home_shotsOnTarget</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -573,7 +573,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>home_yellowCards</t>
+          <t>home_deep</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -583,17 +583,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>home_redCards</t>
+          <t>home_ppda</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.8974</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>home_total_assists</t>
+          <t>home_fouls</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -603,7 +603,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>home_total_xAssists</t>
+          <t>home_corners</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -613,7 +613,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>home_total_key_passes</t>
+          <t>home_yellowCards</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -623,7 +623,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>home_total_xGoalsChain</t>
+          <t>home_redCards</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -633,7 +633,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>home_total_xGoalsBuildup</t>
+          <t>home_total_assists</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -643,7 +643,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>home_total_yellow_cards</t>
+          <t>home_total_xAssists</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -653,7 +653,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>home_total_red_cards</t>
+          <t>home_total_key_passes</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -663,7 +663,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>home_total_blocked_shots</t>
+          <t>home_total_xGoalsChain</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -673,7 +673,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>home_total_saved_shots</t>
+          <t>home_total_xGoalsBuildup</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -683,7 +683,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>away_xGoals</t>
+          <t>home_total_yellow_cards</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -693,7 +693,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>away_shots</t>
+          <t>home_total_red_cards</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -703,7 +703,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>away_shotsOnTarget</t>
+          <t>home_total_blocked_shots</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -713,7 +713,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>away_deep</t>
+          <t>home_total_saved_shots</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -723,17 +723,17 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>away_ppda</t>
+          <t>away_xGoals</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>away_fouls</t>
+          <t>away_shots</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -743,7 +743,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>away_corners</t>
+          <t>away_shotsOnTarget</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>away_yellowCards</t>
+          <t>away_deep</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -763,17 +763,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>away_redCards</t>
+          <t>away_ppda</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2.122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>away_total_assists</t>
+          <t>away_fouls</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -783,7 +783,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>away_total_xAssists</t>
+          <t>away_corners</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -793,7 +793,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>away_total_key_passes</t>
+          <t>away_yellowCards</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -803,7 +803,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>away_total_xGoalsChain</t>
+          <t>away_redCards</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -813,7 +813,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>away_total_xGoalsBuildup</t>
+          <t>away_total_assists</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -823,7 +823,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>away_total_yellow_cards</t>
+          <t>away_total_xAssists</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -833,7 +833,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>away_total_red_cards</t>
+          <t>away_total_key_passes</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -843,7 +843,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>away_total_blocked_shots</t>
+          <t>away_total_xGoalsChain</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -853,7 +853,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>away_total_saved_shots</t>
+          <t>away_total_xGoalsBuildup</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -863,10 +863,50 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
+          <t>away_total_yellow_cards</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>away_total_red_cards</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>away_total_blocked_shots</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>away_total_saved_shots</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
           <t>gameresult</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
